--- a/last season cleaned data/lastseasoniplbowlingg.xlsx
+++ b/last season cleaned data/lastseasoniplbowlingg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned last season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/last season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B06BD2F-26EB-2146-822E-E3322037116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0039B14-2496-0747-A9DC-B6671709F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
